--- a/Code/Results/Cases/Case_2_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.712432596031022</v>
+        <v>0.5394813449752291</v>
       </c>
       <c r="C2">
-        <v>0.3616091963310737</v>
+        <v>0.1625366927017353</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2593065303454125</v>
+        <v>0.1508287129605463</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.2024198283796395</v>
+        <v>0.191879912830089</v>
       </c>
       <c r="H2">
-        <v>0.1639346812174267</v>
+        <v>0.3584317889760058</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8076874430325063</v>
+        <v>0.2734228452430898</v>
       </c>
       <c r="N2">
-        <v>0.6612623726523807</v>
+        <v>0.8824255634761045</v>
       </c>
       <c r="O2">
-        <v>0.7238877308258367</v>
+        <v>1.007367170672637</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.495222430386207</v>
+        <v>0.4707715867089632</v>
       </c>
       <c r="C3">
-        <v>0.3253846734231587</v>
+        <v>0.1505194579993798</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2268453128080523</v>
+        <v>0.1436357464271794</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1834629303210562</v>
+        <v>0.1896484927570796</v>
       </c>
       <c r="H3">
-        <v>0.1604843362850943</v>
+        <v>0.3609013082473638</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7000872630174158</v>
+        <v>0.2419772903493254</v>
       </c>
       <c r="N3">
-        <v>0.6633869679547715</v>
+        <v>0.8853392644988745</v>
       </c>
       <c r="O3">
-        <v>0.6761387474502243</v>
+        <v>1.007562709466399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.361772599271035</v>
+        <v>0.4284424417755019</v>
       </c>
       <c r="C4">
-        <v>0.303097140713831</v>
+        <v>0.143098095030652</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2074160958049873</v>
+        <v>0.1393530083536447</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1724675856630142</v>
+        <v>0.1884964812801329</v>
       </c>
       <c r="H4">
-        <v>0.1587841992011576</v>
+        <v>0.3626359357430644</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6343736345508546</v>
+        <v>0.2226973546326363</v>
       </c>
       <c r="N4">
-        <v>0.6655446743423639</v>
+        <v>0.8875120980344775</v>
       </c>
       <c r="O4">
-        <v>0.6490539155211508</v>
+        <v>1.008593680568467</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.307356720957785</v>
+        <v>0.4111585908441668</v>
       </c>
       <c r="C5">
-        <v>0.2940018768123878</v>
+        <v>0.1400633099700457</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1996125276676182</v>
+        <v>0.1376411603286982</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1681372026276193</v>
+        <v>0.1880816411721682</v>
       </c>
       <c r="H5">
-        <v>0.158191387607225</v>
+        <v>0.3633976807975472</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.60766797133887</v>
+        <v>0.2148477346714017</v>
       </c>
       <c r="N5">
-        <v>0.6666313974245526</v>
+        <v>0.888494233228073</v>
       </c>
       <c r="O5">
-        <v>0.638542493731336</v>
+        <v>1.009242313954601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.298318578232426</v>
+        <v>0.4082865763010659</v>
       </c>
       <c r="C6">
-        <v>0.292490794811826</v>
+        <v>0.1395587575402999</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1983232905800065</v>
+        <v>0.1373589198077738</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1674268926717772</v>
+        <v>0.1880160491902743</v>
       </c>
       <c r="H6">
-        <v>0.1580988446342673</v>
+        <v>0.3635274811009026</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.603237494790541</v>
+        <v>0.213544744558547</v>
       </c>
       <c r="N6">
-        <v>0.6668241752883262</v>
+        <v>0.8886631609937936</v>
       </c>
       <c r="O6">
-        <v>0.6368278297063057</v>
+        <v>1.009363803966011</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.361038882399811</v>
+        <v>0.4282094834723296</v>
       </c>
       <c r="C7">
-        <v>0.3029745329369433</v>
+        <v>0.1430572091505411</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2073104083039397</v>
+        <v>0.1393297868385801</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1724085910609219</v>
+        <v>0.1884906657723349</v>
       </c>
       <c r="H7">
-        <v>0.1587758060967488</v>
+        <v>0.3626459867774727</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6340131964213356</v>
+        <v>0.2225914629503194</v>
       </c>
       <c r="N7">
-        <v>0.6655584994625627</v>
+        <v>0.8875249517322885</v>
       </c>
       <c r="O7">
-        <v>0.648910071533976</v>
+        <v>1.008601503792789</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.637547138341318</v>
+        <v>0.5158201356663596</v>
       </c>
       <c r="C8">
-        <v>0.3491274995999163</v>
+        <v>0.1584021511179969</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2480020876160367</v>
+        <v>0.14832066937538</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1957425525872623</v>
+        <v>0.1910651173718776</v>
       </c>
       <c r="H8">
-        <v>0.1626549570373896</v>
+        <v>0.3592379451142236</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7705038263651431</v>
+        <v>0.2625747237785063</v>
       </c>
       <c r="N8">
-        <v>0.6618134590099984</v>
+        <v>0.8833506509375724</v>
       </c>
       <c r="O8">
-        <v>0.7069383400461788</v>
+        <v>1.007245198405769</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.179803173750884</v>
+        <v>0.6864649748427496</v>
       </c>
       <c r="C9">
-        <v>0.4393489691807417</v>
+        <v>0.1881459152665457</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3323744959791028</v>
+        <v>0.167024858409377</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.247170221940209</v>
+        <v>0.1978548457477629</v>
       </c>
       <c r="H9">
-        <v>0.1738294452284279</v>
+        <v>0.3542887756286603</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.041730531391813</v>
+        <v>0.3412003432844628</v>
       </c>
       <c r="N9">
-        <v>0.6615790351109609</v>
+        <v>0.8782032558478079</v>
       </c>
       <c r="O9">
-        <v>0.8401534714873975</v>
+        <v>1.011839681336738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.579257173532255</v>
+        <v>0.8110890242303412</v>
       </c>
       <c r="C10">
-        <v>0.5055847672249172</v>
+        <v>0.2097772520462797</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3980389550987269</v>
+        <v>0.1814386668591155</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2892340067531478</v>
+        <v>0.2039205358298943</v>
       </c>
       <c r="H10">
-        <v>0.184579605799442</v>
+        <v>0.3517122476756072</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.244333344431411</v>
+        <v>0.3991034000233498</v>
       </c>
       <c r="N10">
-        <v>0.6662432012344794</v>
+        <v>0.8762655277696751</v>
       </c>
       <c r="O10">
-        <v>0.9523784792351933</v>
+        <v>1.019676722316007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.761462590829581</v>
+        <v>0.867613000214817</v>
       </c>
       <c r="C11">
-        <v>0.5357370653159705</v>
+        <v>0.2195679480328181</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4289238662185753</v>
+        <v>0.1881456479608232</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.3094949837625336</v>
+        <v>0.2069173181608477</v>
       </c>
       <c r="H11">
-        <v>0.1901086413931949</v>
+        <v>0.3507707773495952</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.337505919507294</v>
+        <v>0.4254758266996674</v>
       </c>
       <c r="N11">
-        <v>0.6695346806836113</v>
+        <v>0.8757828350628358</v>
       </c>
       <c r="O11">
-        <v>1.007146095841762</v>
+        <v>1.024219291377108</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.83055188105169</v>
+        <v>0.8889920290054079</v>
       </c>
       <c r="C12">
-        <v>0.5471607062339672</v>
+        <v>0.2232681080954251</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.440784363375883</v>
+        <v>0.1907072668892695</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.317346715177024</v>
+        <v>0.2080865256386062</v>
       </c>
       <c r="H12">
-        <v>0.1923019874643046</v>
+        <v>0.3504474707413721</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.372957829123536</v>
+        <v>0.4354669405881282</v>
       </c>
       <c r="N12">
-        <v>0.6709599797735279</v>
+        <v>0.8756572591509126</v>
       </c>
       <c r="O12">
-        <v>1.028472984923582</v>
+        <v>1.02608064054823</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.815667813718846</v>
+        <v>0.884388820195511</v>
       </c>
       <c r="C13">
-        <v>0.5447001274325203</v>
+        <v>0.2224715438279077</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4382223284869653</v>
+        <v>0.1901546014916136</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.3156474373141833</v>
+        <v>0.2078331824790496</v>
       </c>
       <c r="H13">
-        <v>0.1918250507995083</v>
+        <v>0.3505156229318089</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.365314675293845</v>
+        <v>0.4333149801351226</v>
       </c>
       <c r="N13">
-        <v>0.6706448821902882</v>
+        <v>0.8756817618899504</v>
       </c>
       <c r="O13">
-        <v>1.023852836416836</v>
+        <v>1.025673476992978</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.76714463501412</v>
+        <v>0.8693723811657605</v>
       </c>
       <c r="C14">
-        <v>0.536676766963609</v>
+        <v>0.2198725114143372</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4298962125361783</v>
+        <v>0.1883559549321205</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.3101372519445249</v>
+        <v>0.2070128189275664</v>
       </c>
       <c r="H14">
-        <v>0.1902870462607922</v>
+        <v>0.3507435129175605</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.340419024816526</v>
+        <v>0.4262977134106478</v>
       </c>
       <c r="N14">
-        <v>0.6696482919590636</v>
+        <v>0.8757713580605326</v>
       </c>
       <c r="O14">
-        <v>1.008888577334346</v>
+        <v>1.024369592762895</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.737435437891691</v>
+        <v>0.8601710387105754</v>
       </c>
       <c r="C15">
-        <v>0.5317630390157717</v>
+        <v>0.2182795627475969</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4248183196233128</v>
+        <v>0.1872570824428337</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.3067859979824732</v>
+        <v>0.206514808489743</v>
       </c>
       <c r="H15">
-        <v>0.1893581876788772</v>
+        <v>0.3508874281413767</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.325192555197191</v>
+        <v>0.4220000095125869</v>
       </c>
       <c r="N15">
-        <v>0.669061477460815</v>
+        <v>0.8758336846824761</v>
       </c>
       <c r="O15">
-        <v>0.9998007017842667</v>
+        <v>1.023589329744567</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.56736130160823</v>
+        <v>0.807391563856811</v>
       </c>
       <c r="C16">
-        <v>0.5036148852642839</v>
+        <v>0.2091363898651366</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3960425653522179</v>
+        <v>0.1810033910881117</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2879340232750991</v>
+        <v>0.2037294883729572</v>
       </c>
       <c r="H16">
-        <v>0.1842317751231377</v>
+        <v>0.3517784193627449</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.238266629170795</v>
+        <v>0.3973805310191807</v>
       </c>
       <c r="N16">
-        <v>0.6660525300288214</v>
+        <v>0.8763050858022154</v>
       </c>
       <c r="O16">
-        <v>0.9488785259960935</v>
+        <v>1.01939957674773</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.463166928704368</v>
+        <v>0.7749691507852958</v>
       </c>
       <c r="C17">
-        <v>0.4863541031783996</v>
+        <v>0.2035144948329446</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3786624547065074</v>
+        <v>0.1772055686330276</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2766693494237842</v>
+        <v>0.202081779824951</v>
       </c>
       <c r="H17">
-        <v>0.1812558406633116</v>
+        <v>0.3523841106192691</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.18521532629817</v>
+        <v>0.382285370833209</v>
       </c>
       <c r="N17">
-        <v>0.6645136097407374</v>
+        <v>0.8766963164382133</v>
       </c>
       <c r="O17">
-        <v>0.9186278648031134</v>
+        <v>1.017080091545324</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.403281993544624</v>
+        <v>0.7563048826119143</v>
       </c>
       <c r="C18">
-        <v>0.4764279955103916</v>
+        <v>0.200276284195013</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3687600570478651</v>
+        <v>0.1750352716426775</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.270295073001904</v>
+        <v>0.2011563987462921</v>
       </c>
       <c r="H18">
-        <v>0.1796037858248809</v>
+        <v>0.3527541910513889</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.154794868200433</v>
+        <v>0.3736060587882477</v>
       </c>
       <c r="N18">
-        <v>0.6637378825799232</v>
+        <v>0.8769588857580572</v>
       </c>
       <c r="O18">
-        <v>0.9015748401789381</v>
+        <v>1.015837951315859</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.383013075016493</v>
+        <v>0.7499828129213597</v>
       </c>
       <c r="C19">
-        <v>0.4730674276871127</v>
+        <v>0.1991790913531304</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3654228895739138</v>
+        <v>0.1743028621278739</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2681543521127026</v>
+        <v>0.2008469096327161</v>
       </c>
       <c r="H19">
-        <v>0.1790544409785468</v>
+        <v>0.3528832199770591</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.144510321858633</v>
+        <v>0.3706679172040737</v>
       </c>
       <c r="N19">
-        <v>0.6634937136503538</v>
+        <v>0.8770542396245133</v>
       </c>
       <c r="O19">
-        <v>0.8958589042654808</v>
+        <v>1.015433160360828</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.474253800252541</v>
+        <v>0.7784222111389454</v>
       </c>
       <c r="C20">
-        <v>0.488191334964597</v>
+        <v>0.2041134377052458</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3805027150807589</v>
+        <v>0.1776083911615771</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2778575175937306</v>
+        <v>0.202254867620141</v>
       </c>
       <c r="H20">
-        <v>0.1815664085639384</v>
+        <v>0.3523173872476661</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.190852905363904</v>
+        <v>0.3838919644933227</v>
       </c>
       <c r="N20">
-        <v>0.6646660308753383</v>
+        <v>0.8766507846248857</v>
       </c>
       <c r="O20">
-        <v>0.9218118790937808</v>
+        <v>1.017317482039402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.781394391822516</v>
+        <v>0.8737837714902525</v>
       </c>
       <c r="C21">
-        <v>0.5390332482824363</v>
+        <v>0.2206361120406939</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4323371536929983</v>
+        <v>0.1888836665443279</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.3117507146627361</v>
+        <v>0.2072528442937056</v>
       </c>
       <c r="H21">
-        <v>0.1907360271131751</v>
+        <v>0.3506756744812094</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.34772667525769</v>
+        <v>0.4283587352876879</v>
       </c>
       <c r="N21">
-        <v>0.6699360709827857</v>
+        <v>0.8757434899110024</v>
       </c>
       <c r="O21">
-        <v>1.01326755298615</v>
+        <v>1.024748738748428</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.982676258407139</v>
+        <v>0.9359596099488954</v>
       </c>
       <c r="C22">
-        <v>0.5722955044894888</v>
+        <v>0.2313915986981385</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4671861204164003</v>
+        <v>0.1963800736590073</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.3349562061198696</v>
+        <v>0.2107198802167431</v>
       </c>
       <c r="H22">
-        <v>0.1973135812093005</v>
+        <v>0.3497963023619519</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.451253491896878</v>
+        <v>0.4574461947726007</v>
       </c>
       <c r="N22">
-        <v>0.6744285258234584</v>
+        <v>0.8754839201223348</v>
       </c>
       <c r="O22">
-        <v>1.076491497044401</v>
+        <v>1.030428666535443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.875190709346441</v>
+        <v>0.9027891732818034</v>
       </c>
       <c r="C23">
-        <v>0.5545387790535017</v>
+        <v>0.2256552115428008</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4484908281546467</v>
+        <v>0.1923673633892733</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.3224684391051227</v>
+        <v>0.2088510257883343</v>
       </c>
       <c r="H23">
-        <v>0.1937468035685299</v>
+        <v>0.3502479115202277</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.395899053322523</v>
+        <v>0.4419193569464568</v>
       </c>
       <c r="N23">
-        <v>0.6719311885916852</v>
+        <v>0.8755919951404536</v>
       </c>
       <c r="O23">
-        <v>1.042413196686141</v>
+        <v>1.027321658070861</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.469241371780925</v>
+        <v>0.7768611578147784</v>
       </c>
       <c r="C24">
-        <v>0.4873607309309875</v>
+        <v>0.2038426746418054</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3796704555337342</v>
+        <v>0.1774262342442725</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2773200305636436</v>
+        <v>0.2021765464029954</v>
       </c>
       <c r="H24">
-        <v>0.1814258180940129</v>
+        <v>0.3523474847927304</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.188303910257396</v>
+        <v>0.3831656263048089</v>
       </c>
       <c r="N24">
-        <v>0.6645967825110546</v>
+        <v>0.8766712522823212</v>
       </c>
       <c r="O24">
-        <v>0.920371335913444</v>
+        <v>1.017209873255069</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.03300284436645</v>
+        <v>0.6404294893822566</v>
       </c>
       <c r="C25">
-        <v>0.4149600279921799</v>
+        <v>0.1801376383576496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3089720571898482</v>
+        <v>0.1618481726750787</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2325688297317541</v>
+        <v>0.1958299982349203</v>
       </c>
       <c r="H25">
-        <v>0.1703882113716659</v>
+        <v>0.3554417590519989</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9678600848011811</v>
+        <v>0.3199062617507593</v>
       </c>
       <c r="N25">
-        <v>0.6608314499828865</v>
+        <v>0.8792713493959923</v>
       </c>
       <c r="O25">
-        <v>0.8017863424797582</v>
+        <v>1.009816087164893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_200/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_200/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5394813449752291</v>
+        <v>1.71243259603105</v>
       </c>
       <c r="C2">
-        <v>0.1625366927017353</v>
+        <v>0.3616091963311021</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1508287129605463</v>
+        <v>0.2593065303454054</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.191879912830089</v>
+        <v>0.2024198283796466</v>
       </c>
       <c r="H2">
-        <v>0.3584317889760058</v>
+        <v>0.163934681217313</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2734228452430898</v>
+        <v>0.8076874430324992</v>
       </c>
       <c r="N2">
-        <v>0.8824255634761045</v>
+        <v>0.6612623726523807</v>
       </c>
       <c r="O2">
-        <v>1.007367170672637</v>
+        <v>0.7238877308257798</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4707715867089632</v>
+        <v>1.495222430386036</v>
       </c>
       <c r="C3">
-        <v>0.1505194579993798</v>
+        <v>0.3253846734230166</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1436357464271794</v>
+        <v>0.2268453128080594</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.1896484927570796</v>
+        <v>0.1834629303210633</v>
       </c>
       <c r="H3">
-        <v>0.3609013082473638</v>
+        <v>0.1604843362851014</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2419772903493254</v>
+        <v>0.70008726301743</v>
       </c>
       <c r="N3">
-        <v>0.8853392644988745</v>
+        <v>0.6633869679547075</v>
       </c>
       <c r="O3">
-        <v>1.007562709466399</v>
+        <v>0.6761387474502953</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4284424417755019</v>
+        <v>1.361772599271035</v>
       </c>
       <c r="C4">
-        <v>0.143098095030652</v>
+        <v>0.3030971407140584</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1393530083536447</v>
+        <v>0.2074160958049802</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.1884964812801329</v>
+        <v>0.1724675856631421</v>
       </c>
       <c r="H4">
-        <v>0.3626359357430644</v>
+        <v>0.1587841992011718</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2226973546326363</v>
+        <v>0.634373634550883</v>
       </c>
       <c r="N4">
-        <v>0.8875120980344775</v>
+        <v>0.665544674342371</v>
       </c>
       <c r="O4">
-        <v>1.008593680568467</v>
+        <v>0.6490539155211366</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4111585908441668</v>
+        <v>1.307356720957671</v>
       </c>
       <c r="C5">
-        <v>0.1400633099700457</v>
+        <v>0.2940018768126293</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1376411603286982</v>
+        <v>0.1996125276675826</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.1880816411721682</v>
+        <v>0.1681372026276691</v>
       </c>
       <c r="H5">
-        <v>0.3633976807975472</v>
+        <v>0.1581913876072321</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2148477346714017</v>
+        <v>0.6076679713388629</v>
       </c>
       <c r="N5">
-        <v>0.888494233228073</v>
+        <v>0.6666313974245526</v>
       </c>
       <c r="O5">
-        <v>1.009242313954601</v>
+        <v>0.638542493731336</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4082865763010659</v>
+        <v>1.298318578232596</v>
       </c>
       <c r="C6">
-        <v>0.1395587575402999</v>
+        <v>0.2924907948119539</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1373589198077738</v>
+        <v>0.1983232905799781</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.1880160491902743</v>
+        <v>0.1674268926719051</v>
       </c>
       <c r="H6">
-        <v>0.3635274811009026</v>
+        <v>0.1580988446341607</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.213544744558547</v>
+        <v>0.603237494790541</v>
       </c>
       <c r="N6">
-        <v>0.8886631609937936</v>
+        <v>0.6668241752883333</v>
       </c>
       <c r="O6">
-        <v>1.009363803966011</v>
+        <v>0.6368278297063767</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4282094834723296</v>
+        <v>1.361038882399782</v>
       </c>
       <c r="C7">
-        <v>0.1430572091505411</v>
+        <v>0.3029745329369433</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1393297868385801</v>
+        <v>0.2073104083039468</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.1884906657723349</v>
+        <v>0.1724085910609716</v>
       </c>
       <c r="H7">
-        <v>0.3626459867774727</v>
+        <v>0.1587758060967559</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2225914629503194</v>
+        <v>0.6340131964213356</v>
       </c>
       <c r="N7">
-        <v>0.8875249517322885</v>
+        <v>0.6655584994625627</v>
       </c>
       <c r="O7">
-        <v>1.008601503792789</v>
+        <v>0.6489100715339902</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5158201356663596</v>
+        <v>1.637547138341233</v>
       </c>
       <c r="C8">
-        <v>0.1584021511179969</v>
+        <v>0.3491274996001152</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.14832066937538</v>
+        <v>0.2480020876160367</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.1910651173718776</v>
+        <v>0.1957425525872623</v>
       </c>
       <c r="H8">
-        <v>0.3592379451142236</v>
+        <v>0.1626549570373896</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2625747237785063</v>
+        <v>0.7705038263651431</v>
       </c>
       <c r="N8">
-        <v>0.8833506509375724</v>
+        <v>0.6618134590099487</v>
       </c>
       <c r="O8">
-        <v>1.007245198405769</v>
+        <v>0.7069383400461788</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6864649748427496</v>
+        <v>2.179803173750884</v>
       </c>
       <c r="C9">
-        <v>0.1881459152665457</v>
+        <v>0.439348969180827</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.167024858409377</v>
+        <v>0.3323744959791384</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.1978548457477629</v>
+        <v>0.2471702219400882</v>
       </c>
       <c r="H9">
-        <v>0.3542887756286603</v>
+        <v>0.1738294452285416</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3412003432844628</v>
+        <v>1.041730531391821</v>
       </c>
       <c r="N9">
-        <v>0.8782032558478079</v>
+        <v>0.6615790351108899</v>
       </c>
       <c r="O9">
-        <v>1.011839681336738</v>
+        <v>0.8401534714873407</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8110890242303412</v>
+        <v>2.579257173532255</v>
       </c>
       <c r="C10">
-        <v>0.2097772520462797</v>
+        <v>0.5055847672251446</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1814386668591155</v>
+        <v>0.3980389550987198</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2039205358298943</v>
+        <v>0.2892340067531478</v>
       </c>
       <c r="H10">
-        <v>0.3517122476756072</v>
+        <v>0.1845796057995557</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3991034000233498</v>
+        <v>1.244333344431396</v>
       </c>
       <c r="N10">
-        <v>0.8762655277696751</v>
+        <v>0.6662432012344226</v>
       </c>
       <c r="O10">
-        <v>1.019676722316007</v>
+        <v>0.9523784792351933</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.867613000214817</v>
+        <v>2.761462590829638</v>
       </c>
       <c r="C11">
-        <v>0.2195679480328181</v>
+        <v>0.5357370653154589</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1881456479608232</v>
+        <v>0.4289238662185966</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2069173181608477</v>
+        <v>0.3094949837625762</v>
       </c>
       <c r="H11">
-        <v>0.3507707773495952</v>
+        <v>0.1901086413931949</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4254758266996674</v>
+        <v>1.337505919507294</v>
       </c>
       <c r="N11">
-        <v>0.8757828350628358</v>
+        <v>0.6695346806836255</v>
       </c>
       <c r="O11">
-        <v>1.024219291377108</v>
+        <v>1.007146095841819</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8889920290054079</v>
+        <v>2.83055188105169</v>
       </c>
       <c r="C12">
-        <v>0.2232681080954251</v>
+        <v>0.5471607062337114</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1907072668892695</v>
+        <v>0.440784363375883</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2080865256386062</v>
+        <v>0.3173467151770808</v>
       </c>
       <c r="H12">
-        <v>0.3504474707413721</v>
+        <v>0.1923019874643046</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4354669405881282</v>
+        <v>1.37295782912355</v>
       </c>
       <c r="N12">
-        <v>0.8756572591509126</v>
+        <v>0.6709599797735279</v>
       </c>
       <c r="O12">
-        <v>1.02608064054823</v>
+        <v>1.028472984923582</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.884388820195511</v>
+        <v>2.815667813718846</v>
       </c>
       <c r="C13">
-        <v>0.2224715438279077</v>
+        <v>0.544700127432435</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1901546014916136</v>
+        <v>0.4382223284869582</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.2078331824790496</v>
+        <v>0.3156474373142117</v>
       </c>
       <c r="H13">
-        <v>0.3505156229318089</v>
+        <v>0.1918250507995083</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4333149801351226</v>
+        <v>1.365314675293874</v>
       </c>
       <c r="N13">
-        <v>0.8756817618899504</v>
+        <v>0.6706448821903024</v>
       </c>
       <c r="O13">
-        <v>1.025673476992978</v>
+        <v>1.023852836416808</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8693723811657605</v>
+        <v>2.767144635014006</v>
       </c>
       <c r="C14">
-        <v>0.2198725114143372</v>
+        <v>0.5366767669635522</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1883559549321205</v>
+        <v>0.4298962125361925</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2070128189275664</v>
+        <v>0.3101372519445817</v>
       </c>
       <c r="H14">
-        <v>0.3507435129175605</v>
+        <v>0.1902870462608064</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4262977134106478</v>
+        <v>1.340419024816498</v>
       </c>
       <c r="N14">
-        <v>0.8757713580605326</v>
+        <v>0.6696482919590636</v>
       </c>
       <c r="O14">
-        <v>1.024369592762895</v>
+        <v>1.008888577334346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8601710387105754</v>
+        <v>2.737435437891577</v>
       </c>
       <c r="C15">
-        <v>0.2182795627475969</v>
+        <v>0.5317630390158001</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1872570824428337</v>
+        <v>0.4248183196233128</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.206514808489743</v>
+        <v>0.3067859979824732</v>
       </c>
       <c r="H15">
-        <v>0.3508874281413767</v>
+        <v>0.1893581876787636</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4220000095125869</v>
+        <v>1.325192555197191</v>
       </c>
       <c r="N15">
-        <v>0.8758336846824761</v>
+        <v>0.6690614774608719</v>
       </c>
       <c r="O15">
-        <v>1.023589329744567</v>
+        <v>0.9998007017843236</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.807391563856811</v>
+        <v>2.56736130160823</v>
       </c>
       <c r="C16">
-        <v>0.2091363898651366</v>
+        <v>0.5036148852643123</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1810033910881117</v>
+        <v>0.396042565352225</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2037294883729572</v>
+        <v>0.2879340232751133</v>
       </c>
       <c r="H16">
-        <v>0.3517784193627449</v>
+        <v>0.184231775123024</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3973805310191807</v>
+        <v>1.238266629170795</v>
       </c>
       <c r="N16">
-        <v>0.8763050858022154</v>
+        <v>0.6660525300288356</v>
       </c>
       <c r="O16">
-        <v>1.01939957674773</v>
+        <v>0.9488785259961787</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7749691507852958</v>
+        <v>2.463166928704425</v>
       </c>
       <c r="C17">
-        <v>0.2035144948329446</v>
+        <v>0.4863541031779164</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1772055686330276</v>
+        <v>0.3786624547065074</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.202081779824951</v>
+        <v>0.2766693494237273</v>
       </c>
       <c r="H17">
-        <v>0.3523841106192691</v>
+        <v>0.1812558406633116</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.382285370833209</v>
+        <v>1.185215326298149</v>
       </c>
       <c r="N17">
-        <v>0.8766963164382133</v>
+        <v>0.6645136097407374</v>
       </c>
       <c r="O17">
-        <v>1.017080091545324</v>
+        <v>0.9186278648029997</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7563048826119143</v>
+        <v>2.403281993544454</v>
       </c>
       <c r="C18">
-        <v>0.200276284195013</v>
+        <v>0.4764279955103916</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1750352716426775</v>
+        <v>0.3687600570478651</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2011563987462921</v>
+        <v>0.270295073001833</v>
       </c>
       <c r="H18">
-        <v>0.3527541910513889</v>
+        <v>0.1796037858248809</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3736060587882477</v>
+        <v>1.154794868200426</v>
       </c>
       <c r="N18">
-        <v>0.8769588857580572</v>
+        <v>0.6637378825799374</v>
       </c>
       <c r="O18">
-        <v>1.015837951315859</v>
+        <v>0.9015748401789097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7499828129213597</v>
+        <v>2.383013075016379</v>
       </c>
       <c r="C19">
-        <v>0.1991790913531304</v>
+        <v>0.4730674276871412</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1743028621278739</v>
+        <v>0.3654228895738996</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2008469096327161</v>
+        <v>0.2681543521127168</v>
       </c>
       <c r="H19">
-        <v>0.3528832199770591</v>
+        <v>0.1790544409785468</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3706679172040737</v>
+        <v>1.144510321858611</v>
       </c>
       <c r="N19">
-        <v>0.8770542396245133</v>
+        <v>0.6634937136502828</v>
       </c>
       <c r="O19">
-        <v>1.015433160360828</v>
+        <v>0.8958589042654808</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7784222111389454</v>
+        <v>2.47425380025237</v>
       </c>
       <c r="C20">
-        <v>0.2041134377052458</v>
+        <v>0.488191334964597</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1776083911615771</v>
+        <v>0.3805027150807518</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.202254867620141</v>
+        <v>0.2778575175937306</v>
       </c>
       <c r="H20">
-        <v>0.3523173872476661</v>
+        <v>0.1815664085639384</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3838919644933227</v>
+        <v>1.190852905363897</v>
       </c>
       <c r="N20">
-        <v>0.8766507846248857</v>
+        <v>0.6646660308753525</v>
       </c>
       <c r="O20">
-        <v>1.017317482039402</v>
+        <v>0.9218118790938377</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8737837714902525</v>
+        <v>2.781394391822403</v>
       </c>
       <c r="C21">
-        <v>0.2206361120406939</v>
+        <v>0.5390332482824363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1888836665443279</v>
+        <v>0.4323371536929699</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2072528442937056</v>
+        <v>0.3117507146626792</v>
       </c>
       <c r="H21">
-        <v>0.3506756744812094</v>
+        <v>0.1907360271131751</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4283587352876879</v>
+        <v>1.347726675257675</v>
       </c>
       <c r="N21">
-        <v>0.8757434899110024</v>
+        <v>0.6699360709828568</v>
       </c>
       <c r="O21">
-        <v>1.024748738748428</v>
+        <v>1.013267552986093</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9359596099488954</v>
+        <v>2.982676258407253</v>
       </c>
       <c r="C22">
-        <v>0.2313915986981385</v>
+        <v>0.5722955044894888</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1963800736590073</v>
+        <v>0.4671861204163932</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2107198802167431</v>
+        <v>0.3349562061198554</v>
       </c>
       <c r="H22">
-        <v>0.3497963023619519</v>
+        <v>0.1973135812093005</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4574461947726007</v>
+        <v>1.451253491896878</v>
       </c>
       <c r="N22">
-        <v>0.8754839201223348</v>
+        <v>0.6744285258234584</v>
       </c>
       <c r="O22">
-        <v>1.030428666535443</v>
+        <v>1.076491497044373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9027891732818034</v>
+        <v>2.875190709346327</v>
       </c>
       <c r="C23">
-        <v>0.2256552115428008</v>
+        <v>0.5545387790537575</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1923673633892733</v>
+        <v>0.448490828154668</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2088510257883343</v>
+        <v>0.3224684391050658</v>
       </c>
       <c r="H23">
-        <v>0.3502479115202277</v>
+        <v>0.1937468035684162</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4419193569464568</v>
+        <v>1.395899053322509</v>
       </c>
       <c r="N23">
-        <v>0.8755919951404536</v>
+        <v>0.6719311885916142</v>
       </c>
       <c r="O23">
-        <v>1.027321658070861</v>
+        <v>1.042413196686113</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7768611578147784</v>
+        <v>2.469241371781038</v>
       </c>
       <c r="C24">
-        <v>0.2038426746418054</v>
+        <v>0.4873607309311012</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1774262342442725</v>
+        <v>0.37967045553372</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2021765464029954</v>
+        <v>0.2773200305635726</v>
       </c>
       <c r="H24">
-        <v>0.3523474847927304</v>
+        <v>0.1814258180940271</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3831656263048089</v>
+        <v>1.188303910257396</v>
       </c>
       <c r="N24">
-        <v>0.8766712522823212</v>
+        <v>0.664596782511083</v>
       </c>
       <c r="O24">
-        <v>1.017209873255069</v>
+        <v>0.920371335913444</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6404294893822566</v>
+        <v>2.033002844366536</v>
       </c>
       <c r="C25">
-        <v>0.1801376383576496</v>
+        <v>0.4149600279926062</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1618481726750787</v>
+        <v>0.3089720571898482</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.1958299982349203</v>
+        <v>0.2325688297318109</v>
       </c>
       <c r="H25">
-        <v>0.3554417590519989</v>
+        <v>0.1703882113715451</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3199062617507593</v>
+        <v>0.967860084801174</v>
       </c>
       <c r="N25">
-        <v>0.8792713493959923</v>
+        <v>0.6608314499828793</v>
       </c>
       <c r="O25">
-        <v>1.009816087164893</v>
+        <v>0.8017863424797582</v>
       </c>
     </row>
   </sheetData>
